--- a/Wanted Queries Data.xlsx
+++ b/Wanted Queries Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>Entry Wanted</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Sh@p L1fting</t>
   </si>
   <si>
-    <t>Use 3 dates, MMDDYYYY format, past date, current date and +1 day</t>
-  </si>
-  <si>
     <t>XYZ 123$</t>
   </si>
   <si>
@@ -250,6 +247,30 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>IOU 56789</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>mmm/dd/yyyy</t>
+  </si>
+  <si>
+    <t>redbrownish</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto</t>
+  </si>
+  <si>
+    <t>Mary A Jose Maria Gomez Ramierz</t>
+  </si>
+  <si>
+    <t>asdfghjklz</t>
+  </si>
+  <si>
+    <t>012/26/2019</t>
   </si>
 </sst>
 </file>
@@ -308,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -344,15 +365,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -362,7 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -372,24 +383,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,7 +715,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,33 +748,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>54</v>
+      <c r="E2" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1234</v>
       </c>
     </row>
@@ -762,46 +782,50 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>87654321</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
-        <v>55</v>
+      <c r="D4" s="6">
+        <v>1234567890</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10" t="s">
-        <v>56</v>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6">
         <v>55</v>
       </c>
     </row>
@@ -809,16 +833,16 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6">
         <v>8</v>
       </c>
     </row>
@@ -826,153 +850,169 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>602</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>65</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7" t="s">
-        <v>57</v>
+      <c r="D8" s="6">
+        <v>7856</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>15</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
+      <c r="D9" s="6">
+        <v>3456</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>43488</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>44191</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>61</v>
+      <c r="D12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
+      <c r="B13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7">
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>47807</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>44191</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
+      <c r="D15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
+      <c r="B16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7">
+      <c r="B17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="6">
         <v>45</v>
       </c>
     </row>
@@ -980,15 +1020,17 @@
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="15">
+        <v>43825</v>
+      </c>
+      <c r="C18" s="9">
         <v>44191</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7" t="s">
-        <v>61</v>
+      <c r="D18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
@@ -1009,278 +1051,307 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>1234567891</v>
       </c>
+      <c r="C21" s="14">
+        <v>123456789</v>
+      </c>
+      <c r="D21" s="14">
+        <v>12345678901</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6">
+        <v>87654321</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1234567890</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="7">
-        <v>87654321</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7" t="s">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10" t="s">
+      <c r="E26" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="6">
+        <v>602</v>
+      </c>
+      <c r="C28" s="6">
+        <v>65</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7856</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="8">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1212</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3456</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="7">
+        <v>43488</v>
+      </c>
+      <c r="C32" s="9">
+        <v>44191</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
         <v>45</v>
       </c>
-      <c r="E26" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="7">
-        <v>602</v>
-      </c>
-      <c r="C28" s="7">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="11">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="7">
+        <v>47807</v>
+      </c>
+      <c r="C35" s="9">
+        <v>44191</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="7">
-        <v>1212</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="7" t="s">
+      <c r="B37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="15">
+        <v>43825</v>
+      </c>
+      <c r="C38" s="9">
+        <v>44191</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="8">
-        <v>43488</v>
-      </c>
-      <c r="C32" s="12">
-        <v>44191</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="8">
-        <v>47807</v>
-      </c>
-      <c r="C35" s="12">
-        <v>44191</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C38" s="12">
-        <v>44191</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
@@ -1301,52 +1372,52 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <v>1234567891</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="6">
         <v>987654321</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="6">
         <v>10112345678</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>67</v>
+      <c r="E41" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="7">
+        <v>43516</v>
+      </c>
+      <c r="C43" s="9">
+        <v>44191</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="14">
-        <v>43516</v>
-      </c>
-      <c r="C43" s="12">
-        <v>44191</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>61</v>
+      <c r="E43" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
